--- a/数据整理/stocks/A股/上证主板/600456-宝钛股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600456-宝钛股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2835,4 +2836,706 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4255</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>62.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1847</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7971</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7715</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2338</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1795</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001220</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001800</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安新乐享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001905</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600456-宝钛股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600456-宝钛股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3538,4 +3539,706 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9523</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5491</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4854</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>959991</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3912</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>959993</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华融新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159846</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信中证1000交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600456-宝钛股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600456-宝钛股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4241,4 +4242,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600456-宝钛股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600456-宝钛股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4250,7 +4251,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4261,17 +4262,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4281,14 +4302,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.98</v>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9087</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -4297,14 +4340,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.15</v>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1181</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -4313,14 +4378,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.98</v>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>55.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2593</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4329,13 +4416,2317 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5261</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1533</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0775</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7565</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6831</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>959991</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5875</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011216</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5746</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5739</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010299</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5734</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011344</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5344</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5138</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4467</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3678</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3126</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3101</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2343</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2103</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1448</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1435</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002160</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160323</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏磐泰混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008909</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005914</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城智能生活混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010300</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003127</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长信易进混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.07</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011217</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>959993</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003126</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长信易进混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004806</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长信先机两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>76.84</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011345</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>79.77</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008910</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>61</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>32</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.58</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600456-宝钛股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600456-宝钛股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6625,7 +6626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6636,17 +6637,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6656,14 +6677,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>61</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25.89</v>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3606</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -6672,14 +6715,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.98</v>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5482</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -6688,14 +6753,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.15</v>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2252</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -6704,14 +6791,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>28</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.98</v>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9632</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -6720,13 +6829,1987 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7802</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7637</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5107</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014144</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3671</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3559</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3493</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3376</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3373</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3250</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>62.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3232</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>959991</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2832</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2766</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2534</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2493</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华盛利混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2296</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2235</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2021</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1780</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>450010</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014145</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519967</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长信利富债券</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>690001</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>民生加银品牌蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002535</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003126</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信易进混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003127</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长信易进混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>69.18</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>66.42</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>959993</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>73.88</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>77.80</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008909</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008910</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>53</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>61</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>28</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>32</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>6.58</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600456-宝钛股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600456-宝钛股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8692,7 +8693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8703,17 +8704,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8723,14 +8744,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>53</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.62</v>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3942</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -8739,14 +8782,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>61</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25.89</v>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9058</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -8755,14 +8820,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.98</v>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5490</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -8771,14 +8858,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.15</v>
+          <t>002001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>131.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>44.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5215</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -8787,14 +8896,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>28</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.98</v>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0677</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -8803,13 +8934,2117 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9044</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8901</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8689</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏回报二号混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>53.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>45.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6307</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5841</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>959991</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4292</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3706</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3485</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008979</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家民丰回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3136</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014144</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2987</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011592</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时军工主题股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2768</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2285</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005165</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富荣福锦混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2111</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1492</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1411</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014283</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏北交所创新中小企业精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>68.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012545</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013566</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014145</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014606</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>50.70</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>690001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>民生加银品牌蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010642</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>农银汇理秀山一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003126</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长信易进混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003127</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长信易进混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>970113</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴睿优选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014607</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>959993</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>970101</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴享优选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>970100</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴享优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>015078</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>76.30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>970102</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴享优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005164</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富荣福锦混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012546</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>970112</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴睿优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>62.82</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>960002</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏回报混合H</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>44.64</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>970114</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴睿优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>57</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>53</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>61</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>28</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>32</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>6.58</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600456-宝钛股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600456-宝钛股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>16.41</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D3" t="n">
-        <v>13.62</v>
+        <v>16.41</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D4" t="n">
-        <v>25.89</v>
+        <v>13.62</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D5" t="n">
-        <v>2.98</v>
+        <v>25.89</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>6.15</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>5.98</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>28</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>32</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>6.58</v>
       </c>
     </row>
@@ -600,6 +617,1010 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3753</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012239</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>惠升优势企业一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3114</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2594</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005165</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富荣福锦混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1339</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014283</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏北交所创新中小企业精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011830</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国天恒混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>65.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014792</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心臻选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012545</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富荣福银混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>64.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014606</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014607</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>690001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银品牌蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>40.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014839</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴银碳中和主题混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014838</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴银碳中和主题混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003127</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信易进混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>33.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>64.43</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014793</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心臻选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005164</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富荣福锦混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011831</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国天恒混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>65.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003126</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信易进混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>33.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012546</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富荣福银混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2817,7 +3838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4883,7 +5904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7250,708 +8271,6 @@
       </c>
       <c r="H62" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>070021</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>嘉实主题新动力混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18.71</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9523</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004139</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中邮军民融合灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.44</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.47</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5491</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000985</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实逆向策略股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.37</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.85</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4854</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>959991</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>兴证资管金麒麟领先优势一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.63</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.46</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3912</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519767</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>交银施罗德科技创新灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1182</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007777</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中邮研究精选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>74.55</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1131</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001479</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中邮风格轮动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.46</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0976</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001120</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方睿鑫热点挖掘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>87.47</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0793</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004205</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>东方支柱产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.52</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0605</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001121</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>东方睿鑫热点挖掘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>87.47</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0524</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004244</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>东方周期优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>89.78</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0228</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>959993</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>兴证资管金麒麟领先优势一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>86.46</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0180</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004926</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中航军民融合精选混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>80.44</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0133</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004927</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中航军民融合精选混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>80.44</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0118</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001068</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华融新锐灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>25.45</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001614</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>东方区域发展混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>159846</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>建信中证1000交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>91.31</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -8016,32 +8335,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004698</t>
+          <t>070021</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时军工主题股票</t>
+          <t>嘉实主题新动力混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>59.89</t>
+          <t>18.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.25</t>
+          <t>93.84</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.4255</t>
+          <t>0.9523</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -8054,36 +8373,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501092</t>
+          <t>004139</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银施罗德瑞思三年封闭运作混合</t>
+          <t>中邮军民融合灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>62.68</t>
+          <t>10.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>76.29</t>
+          <t>89.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1847</t>
+          <t>0.5491</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -8092,36 +8411,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001224</t>
+          <t>000985</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中邮新思路灵活配置混合</t>
+          <t>嘉实逆向策略股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24.01</t>
+          <t>9.37</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.14</t>
+          <t>93.85</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7971</t>
+          <t>0.4854</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -8130,36 +8449,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>240022</t>
+          <t>959991</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝资源优选混合A</t>
+          <t>兴证资管金麒麟领先优势一年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21.49</t>
+          <t>10.63</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.38</t>
+          <t>86.46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7715</t>
+          <t>0.3912</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -8168,36 +8487,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004139</t>
+          <t>519767</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中邮军民融合灵活配置混合</t>
+          <t>交银施罗德科技创新灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>79.15</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2338</t>
+          <t>0.1182</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -8206,36 +8525,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011068</t>
+          <t>007777</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝资源优选混合C</t>
+          <t>中邮研究精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84.38</t>
+          <t>74.55</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1795</t>
+          <t>0.1131</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -8244,36 +8563,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519756</t>
+          <t>001479</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>交银施罗德国企改革灵活配置混合</t>
+          <t>中邮风格轮动灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.09</t>
+          <t>87.46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1161</t>
+          <t>0.0976</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -8282,36 +8601,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>690011</t>
+          <t>001120</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>民生加银积极成长混合</t>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>85.60</t>
+          <t>87.47</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0954</t>
+          <t>0.0793</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -8320,36 +8639,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001220</t>
+          <t>004205</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>民生加银研究精选灵活配置混合</t>
+          <t>东方支柱产业灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>88.26</t>
+          <t>88.52</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0763</t>
+          <t>0.0605</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -8358,36 +8677,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001120</t>
+          <t>001121</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>83.66</t>
+          <t>87.47</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0645</t>
+          <t>0.0524</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -8396,36 +8715,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001479</t>
+          <t>004244</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中邮风格轮动灵活配置混合</t>
+          <t>东方周期优选灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>85.31</t>
+          <t>89.78</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0641</t>
+          <t>0.0228</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -8434,36 +8753,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004205</t>
+          <t>959993</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>东方支柱产业灵活配置混合</t>
+          <t>兴证资管金麒麟领先优势一年持有期混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>85.18</t>
+          <t>86.46</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0539</t>
+          <t>0.0180</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -8472,32 +8791,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001121</t>
+          <t>004926</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+          <t>中航军民融合精选混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>83.66</t>
+          <t>80.44</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0452</t>
+          <t>0.0133</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -8510,36 +8829,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>004244</t>
+          <t>004927</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>东方周期优选灵活配置混合</t>
+          <t>中航军民融合精选混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>78.95</t>
+          <t>80.44</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0260</t>
+          <t>0.0118</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -8548,36 +8867,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001800</t>
+          <t>001068</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华安新乐享灵活配置混合</t>
+          <t>华融新锐灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>24.64</t>
+          <t>25.45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0088</t>
+          <t>0.0062</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -8586,36 +8905,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001905</t>
+          <t>001614</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华安安益灵活配置混合</t>
+          <t>东方区域发展混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20.23</t>
+          <t>90.88</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0070</t>
+          <t>0.0042</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -8624,36 +8943,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001614</t>
+          <t>159846</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>东方区域发展混合</t>
+          <t>建信中证1000交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>82.28</t>
+          <t>91.31</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>0.0041</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -8662,6 +8981,708 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4255</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>62.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1847</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7971</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7715</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2338</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1795</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001220</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001800</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安新乐享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001905</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9781,7 +10802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600456-宝钛股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600456-宝钛股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>16.41</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D4" t="n">
-        <v>13.62</v>
+        <v>16.41</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D5" t="n">
-        <v>25.89</v>
+        <v>13.62</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D6" t="n">
-        <v>2.98</v>
+        <v>25.89</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>6.15</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>5.98</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1302 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>28</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>32</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>6.58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0717</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5292</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5212</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3947</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1936</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1714</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华盛利混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银景福回报混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1435</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009096</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华安泽混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009097</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华安泽混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1906,858 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6577</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2697</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014048</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1793</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005165</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富荣福锦混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015305</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华鑫峰混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014792</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心臻选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>690001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银品牌蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015306</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华鑫峰混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>58.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004937</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中航混改精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>58.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014793</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心臻选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013437</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013438</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005164</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富荣福锦混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004936</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中航混改精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>73.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1620,7 +3761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3838,7 +5979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5904,7 +8045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8271,708 +10412,6 @@
       </c>
       <c r="H62" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>070021</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>嘉实主题新动力混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18.71</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9523</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004139</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中邮军民融合灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.44</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.47</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5491</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000985</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实逆向策略股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.37</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.85</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4854</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>959991</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>兴证资管金麒麟领先优势一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.63</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.46</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3912</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519767</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>交银施罗德科技创新灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1182</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007777</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中邮研究精选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>74.55</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1131</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001479</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中邮风格轮动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.46</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0976</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001120</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方睿鑫热点挖掘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>87.47</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0793</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004205</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>东方支柱产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.52</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0605</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001121</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>东方睿鑫热点挖掘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>87.47</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0524</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004244</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>东方周期优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>89.78</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0228</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>959993</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>兴证资管金麒麟领先优势一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>86.46</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0180</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004926</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中航军民融合精选混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>80.44</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0133</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004927</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中航军民融合精选混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>80.44</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0118</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001068</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华融新锐灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>25.45</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001614</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>东方区域发展混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>159846</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>建信中证1000交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>91.31</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -9037,32 +10476,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004698</t>
+          <t>070021</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时军工主题股票</t>
+          <t>嘉实主题新动力混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>59.89</t>
+          <t>18.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.25</t>
+          <t>93.84</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.4255</t>
+          <t>0.9523</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -9075,36 +10514,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501092</t>
+          <t>004139</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银施罗德瑞思三年封闭运作混合</t>
+          <t>中邮军民融合灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>62.68</t>
+          <t>10.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>76.29</t>
+          <t>89.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1847</t>
+          <t>0.5491</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -9113,36 +10552,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001224</t>
+          <t>000985</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中邮新思路灵活配置混合</t>
+          <t>嘉实逆向策略股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24.01</t>
+          <t>9.37</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.14</t>
+          <t>93.85</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7971</t>
+          <t>0.4854</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -9151,36 +10590,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>240022</t>
+          <t>959991</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝资源优选混合A</t>
+          <t>兴证资管金麒麟领先优势一年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21.49</t>
+          <t>10.63</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.38</t>
+          <t>86.46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7715</t>
+          <t>0.3912</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -9189,36 +10628,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004139</t>
+          <t>519767</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中邮军民融合灵活配置混合</t>
+          <t>交银施罗德科技创新灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>79.15</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2338</t>
+          <t>0.1182</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -9227,36 +10666,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011068</t>
+          <t>007777</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝资源优选混合C</t>
+          <t>中邮研究精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84.38</t>
+          <t>74.55</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1795</t>
+          <t>0.1131</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -9265,36 +10704,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519756</t>
+          <t>001479</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>交银施罗德国企改革灵活配置混合</t>
+          <t>中邮风格轮动灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.09</t>
+          <t>87.46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1161</t>
+          <t>0.0976</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -9303,36 +10742,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>690011</t>
+          <t>001120</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>民生加银积极成长混合</t>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>85.60</t>
+          <t>87.47</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0954</t>
+          <t>0.0793</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -9341,36 +10780,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001220</t>
+          <t>004205</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>民生加银研究精选灵活配置混合</t>
+          <t>东方支柱产业灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>88.26</t>
+          <t>88.52</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0763</t>
+          <t>0.0605</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -9379,36 +10818,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001120</t>
+          <t>001121</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>83.66</t>
+          <t>87.47</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0645</t>
+          <t>0.0524</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -9417,36 +10856,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001479</t>
+          <t>004244</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中邮风格轮动灵活配置混合</t>
+          <t>东方周期优选灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>85.31</t>
+          <t>89.78</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0641</t>
+          <t>0.0228</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -9455,36 +10894,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004205</t>
+          <t>959993</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>东方支柱产业灵活配置混合</t>
+          <t>兴证资管金麒麟领先优势一年持有期混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>85.18</t>
+          <t>86.46</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0539</t>
+          <t>0.0180</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -9493,32 +10932,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001121</t>
+          <t>004926</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+          <t>中航军民融合精选混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>83.66</t>
+          <t>80.44</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0452</t>
+          <t>0.0133</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -9531,36 +10970,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>004244</t>
+          <t>004927</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>东方周期优选灵活配置混合</t>
+          <t>中航军民融合精选混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>78.95</t>
+          <t>80.44</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0260</t>
+          <t>0.0118</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -9569,36 +11008,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001800</t>
+          <t>001068</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华安新乐享灵活配置混合</t>
+          <t>华融新锐灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>24.64</t>
+          <t>25.45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0088</t>
+          <t>0.0062</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -9607,36 +11046,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001905</t>
+          <t>001614</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华安安益灵活配置混合</t>
+          <t>东方区域发展混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20.23</t>
+          <t>90.88</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0070</t>
+          <t>0.0042</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -9645,36 +11084,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001614</t>
+          <t>159846</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>东方区域发展混合</t>
+          <t>建信中证1000交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>82.28</t>
+          <t>91.31</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>0.0041</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -9683,6 +11122,708 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4255</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>62.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1847</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7971</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7715</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2338</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1795</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001220</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001800</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安新乐享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001905</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10800,1276 +12941,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>398001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中海优质成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>28.38</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.30</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.0717</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004698</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时军工主题股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>39.31</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.21</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.5292</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>240022</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝资源优选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>14.28</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.52</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5212</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>320005</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>诺安价值增长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>15.18</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.60</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3947</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519767</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>交银施罗德科技创新灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.20</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.92</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1936</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000029</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国宏观策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.11</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.59</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1714</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006348</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>银华盛利混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.72</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1691</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011068</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华宝资源优选混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>85.52</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1500</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005274</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中银景福回报混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>11.16</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>25.51</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1484</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004496</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1435</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001990</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中欧数据挖掘多因子灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>10.75</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.59</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1387</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008773</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中银景泰回报混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>12.53</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>22.05</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1328</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>000535</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>长盛航天海工装备灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.82</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1300</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>161611</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>融通内需驱动混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>86.42</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1046</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002291</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>诺安安鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.31</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0909</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005825</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>申万菱信智能驱动股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>89.08</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0878</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>004497</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0705</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001866</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>北信瑞丰新成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>80.83</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0677</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>004234</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中欧数据挖掘多因子灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>91.59</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0494</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005357</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>富国国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>89.44</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0445</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001252</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中海进取收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>92.99</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>7.63</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0427</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002288</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中银稳进策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>90.04</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0391</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009096</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>鹏华安泽混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>28.44</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0293</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>450007</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>国富成长动力混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0283</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005161</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华商上游产业股票</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>87.58</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0095</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>005360</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>汇安资产轮动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>87.45</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0078</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>002908</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>富国睿利定期开放混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>29.73</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>005290</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>诺德新盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>005628</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>汇安趋势动力股票A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>005629</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>汇安趋势动力股票C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>009097</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>鹏华安泽混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>28.44</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>009710</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>诺德新盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>